--- a/Shading Trees/Charts/Value Added Change by Activities.xlsx
+++ b/Shading Trees/Charts/Value Added Change by Activities.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Margins</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Labor - Skilled</t>
   </si>
@@ -38,12 +35,6 @@
   </si>
   <si>
     <t>Capital - Machines</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Import</t>
   </si>
   <si>
     <t>INFORMAL</t>
@@ -431,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,346 +450,256 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2">
+        <v>-101.5815644991055</v>
+      </c>
+      <c r="C2">
+        <v>-1682.904837064813</v>
+      </c>
+      <c r="D2">
+        <v>-871.5317738826335</v>
+      </c>
+      <c r="E2">
+        <v>-16351.99823607501</v>
+      </c>
+      <c r="F2">
+        <v>-4308.870936439784</v>
+      </c>
+      <c r="G2">
+        <v>-3011.780829956529</v>
+      </c>
+      <c r="H2">
+        <v>-1378.007553960788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B3">
+        <v>5.503356589756885</v>
+      </c>
+      <c r="C3">
+        <v>1816.635114637155</v>
+      </c>
+      <c r="D3">
+        <v>63.38320501522532</v>
+      </c>
+      <c r="E3">
+        <v>1134.677733804328</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>192.6395005922759</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="B4">
+        <v>-3.088067447666409</v>
+      </c>
+      <c r="C4">
+        <v>-36.01204997803502</v>
+      </c>
+      <c r="D4">
+        <v>-48.30176131894028</v>
+      </c>
+      <c r="E4">
+        <v>-303.4021710663781</v>
+      </c>
+      <c r="F4">
+        <v>-36.13412044020936</v>
+      </c>
+      <c r="G4">
+        <v>-70.0361122079759</v>
+      </c>
+      <c r="H4">
+        <v>-57.89021641998405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>-0.0189753971621026</v>
-      </c>
-      <c r="D2">
-        <v>-0.3143658699878494</v>
-      </c>
-      <c r="E2">
-        <v>-0.1628018800264379</v>
-      </c>
-      <c r="F2">
-        <v>-3.054548947961153</v>
-      </c>
-      <c r="G2">
-        <v>-0.8048942550115845</v>
-      </c>
-      <c r="H2">
-        <v>-0.5625997675032564</v>
-      </c>
-      <c r="I2">
-        <v>-0.2574109039755142</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2911058522759277</v>
+      </c>
+      <c r="D5">
+        <v>0.3902711514075185</v>
+      </c>
+      <c r="E5">
+        <v>6.157901956581231</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.9125975400636542</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.001024056945420532</v>
-      </c>
-      <c r="D3">
-        <v>0.3376405552703239</v>
-      </c>
-      <c r="E3">
-        <v>0.01179425870014929</v>
-      </c>
-      <c r="F3">
-        <v>0.2111392557351716</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.03584609052726344</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="B6">
+        <v>-6.650596646050573</v>
+      </c>
+      <c r="C6">
+        <v>-53.25114815588542</v>
+      </c>
+      <c r="D6">
+        <v>-44.74477919808329</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-257.0490336888028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-0.000576926862328446</v>
-      </c>
-      <c r="D4">
-        <v>-0.006728676943093596</v>
-      </c>
-      <c r="E4">
-        <v>-0.009023740021636768</v>
-      </c>
-      <c r="F4">
-        <v>-0.05669865018450189</v>
-      </c>
-      <c r="G4">
-        <v>-0.00674983012775774</v>
-      </c>
-      <c r="H4">
-        <v>-0.01308636317790253</v>
-      </c>
-      <c r="I4">
-        <v>-0.0108138775878388</v>
-      </c>
-      <c r="J4">
-        <v>-0.01119110973421513</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="B7">
+        <v>-0.02767746419481679</v>
+      </c>
+      <c r="C7">
+        <v>-0.02019389673967347</v>
+      </c>
+      <c r="D7">
+        <v>-0.1019534509514828</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-18.83636496521361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>5.415631986283187e-05</v>
-      </c>
-      <c r="E5">
-        <v>7.260468702320849e-05</v>
-      </c>
-      <c r="F5">
-        <v>0.001145594651003976</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.0001697764710983983</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.0001211158827939243</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="B8">
+        <v>-3.902841242604928</v>
+      </c>
+      <c r="C8">
+        <v>-2.839936677207135</v>
+      </c>
+      <c r="D8">
+        <v>-14.31115123062658</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-38.17169892843452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-0.001242406041693721</v>
-      </c>
-      <c r="D6">
-        <v>-0.009948049075036542</v>
-      </c>
-      <c r="E6">
-        <v>-0.008358960383689846</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>-0.04801902763861231</v>
-      </c>
-      <c r="J6">
-        <v>-0.004186714318766826</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="B9">
+        <v>-2.082589098990518</v>
+      </c>
+      <c r="C9">
+        <v>-1.519351378555839</v>
+      </c>
+      <c r="D9">
+        <v>-7.668125676411694</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-49.6562255610791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-5.170405388374348e-06</v>
-      </c>
-      <c r="D7">
-        <v>-3.77240598186674e-06</v>
-      </c>
-      <c r="E7">
-        <v>-1.904584436701953e-05</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>-0.00351880656168345</v>
-      </c>
-      <c r="J7">
-        <v>-0.00037142263089474</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="B10">
+        <v>-15.41989406802177</v>
+      </c>
+      <c r="C10">
+        <v>-8.933247853048929</v>
+      </c>
+      <c r="D10">
+        <v>-1.838992613489577</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-67.13144516726848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-0.0007292107037781625</v>
-      </c>
-      <c r="D8">
-        <v>-0.0005306165654485539</v>
-      </c>
-      <c r="E8">
-        <v>-0.002673909589722679</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>-0.007132037835292721</v>
-      </c>
-      <c r="J8">
-        <v>-0.0006700827962464518</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>-0.0003891790898494616</v>
-      </c>
-      <c r="D9">
-        <v>-0.0002839253249257518</v>
-      </c>
-      <c r="E9">
-        <v>-0.00143296350216533</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>-0.009279264467031026</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-0.002880507079867093</v>
-      </c>
-      <c r="D10">
-        <v>-0.001668771747697428</v>
-      </c>
-      <c r="E10">
-        <v>-0.0003435322704286955</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>-0.01254046242384967</v>
-      </c>
-      <c r="J10">
-        <v>-0.001013449216203135</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B11">
-        <v>0</v>
+        <v>-85.61638373024392</v>
       </c>
       <c r="C11">
-        <v>-0.01599553383370861</v>
+        <v>-200.1426465657721</v>
       </c>
       <c r="D11">
-        <v>-0.03739368590219411</v>
+        <v>-228.9478174374578</v>
       </c>
       <c r="E11">
-        <v>-0.0427765701973997</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -807,16 +708,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>-0.1432935034888331</v>
-      </c>
-      <c r="J11">
-        <v>-0.00861307573561673</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
+        <v>-766.8838578224464</v>
       </c>
     </row>
   </sheetData>
